--- a/Excel/digitalbrainbase.xlsx
+++ b/Excel/digitalbrainbase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_085D2D87D2762E0F6235547658B0363EAA6580D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A5D202C-333E-E744-92DF-7696A5AD6145}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_085D2D87D2762E0F6235547658B0363EAA6580D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2960657-B17E-EF4A-AF1A-B17A1F8E91A5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
